--- a/data_pesanan.xlsx
+++ b/data_pesanan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,10 +1642,8 @@
           <t>LARISA</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>081245789</t>
-        </is>
+      <c r="B28" t="n">
+        <v>81245789</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1680,6 +1678,231 @@
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Alber</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1243569</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pandan Alas</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Transfer Bank</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>375000</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20:07</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Diproses</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>aurora</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>47859</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Jalan Pete Raya</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>70</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>QRIS</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>20:07</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Diproses</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Natavia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GG Cempaka</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>70</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Transfer Bank</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Diproses</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Larisa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>081315130649</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Jl Padanaran</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Transfer Bank</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20:29</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Diproses</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1478956231</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GG. Pete</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>QRIS</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Diproses</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
